--- a/Documentación/Documentación_descripción.xlsx
+++ b/Documentación/Documentación_descripción.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E225A279-00F3-4DB6-8F9C-17FFC686630C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3B492-86EA-46C4-BCDA-10E678A1F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" xr2:uid="{54E2B79A-5C65-4C86-A927-38D16DD4CB01}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>FUNCIÓN</t>
   </si>
@@ -179,6 +179,12 @@
     </r>
   </si>
   <si>
+    <t>Actualización de estados: HOT, COLD, TRIP</t>
+  </si>
+  <si>
+    <t>MIX_control_1000ms</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Evaluar las condiciones para el control activo del mezclador
 </t>
@@ -246,7 +252,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">      MIX_DELAY_FOR_STARTING:LAMBDA_CONTROL
+      <t xml:space="preserve">      MIX_DELAY_FOR_STARTING:LAMBDA_CONTROL (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evalua la condición si se tiene control lambda)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -273,7 +300,123 @@
     </r>
   </si>
   <si>
-    <t>Actualización de estados: HOT, COLD, TRIP</t>
+    <t>Mixer_Control_Release_Timeout</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">input value: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      MIX.MixerControlRelase.State </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Supervisión del tiempo de espera para el control activo del mezclador
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Estructura de protección:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> MIX.MixerControlRelease. MIX_protection
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trip delay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:        MIX_TIMEOUT_FOR_STARTING_LAMBDA_CONTROL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cycle time:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      1000ms 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stop condition: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   50125R	</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -438,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -515,6 +658,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,14 +1001,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7A8BD-DDF2-4F6D-88C7-DDB8F2B02A08}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" customWidth="1"/>
     <col min="5" max="5" width="32.5703125" customWidth="1"/>
@@ -912,7 +1061,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23">
         <v>251</v>
       </c>
@@ -975,20 +1124,30 @@
         <v>22</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="24"/>
       <c r="F6" s="26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="17"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>638</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="F7" s="29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:12" s="15" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>

--- a/Documentación/Documentación_descripción.xlsx
+++ b/Documentación/Documentación_descripción.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE3B492-86EA-46C4-BCDA-10E678A1F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4D28C-637B-40E6-A5EE-EEEF493DFD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" xr2:uid="{54E2B79A-5C65-4C86-A927-38D16DD4CB01}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ajustes - Control" sheetId="1" r:id="rId1"/>
-    <sheet name="Estados" sheetId="2" r:id="rId2"/>
+    <sheet name="MIX_control" sheetId="4" r:id="rId1"/>
+    <sheet name="Ajustes - Control" sheetId="1" r:id="rId2"/>
+    <sheet name="Estados" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>FUNCIÓN</t>
   </si>
@@ -417,6 +418,13 @@
       </rPr>
       <t xml:space="preserve">   50125R	</t>
     </r>
+  </si>
+  <si>
+    <t>se encarga de controlar y ajustar el sistema de mezcla de gas
+Realiza una reducción de potencia</t>
+  </si>
+  <si>
+    <t>Calcula los valores de p, T, P</t>
   </si>
 </sst>
 </file>
@@ -581,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -664,6 +672,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,10 +1012,343 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CFE11-53A1-4719-80C7-857F6FDC9732}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="54.7109375" customWidth="1"/>
+    <col min="6" max="6" width="86" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>4485</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="31"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="31"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7A8BD-DDF2-4F6D-88C7-DDB8F2B02A08}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1409,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE42A44E-47FE-41CA-B0B6-123D9BC48E4B}">
   <dimension ref="A1:F1"/>
   <sheetViews>

--- a/Documentación/Documentación_descripción.xlsx
+++ b/Documentación/Documentación_descripción.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4D28C-637B-40E6-A5EE-EEEF493DFD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF56FE-A786-4FE4-B8B8-48554DACA7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1965" windowWidth="29040" windowHeight="17520" xr2:uid="{54E2B79A-5C65-4C86-A927-38D16DD4CB01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{54E2B79A-5C65-4C86-A927-38D16DD4CB01}"/>
   </bookViews>
   <sheets>
     <sheet name="MIX_control" sheetId="4" r:id="rId1"/>
     <sheet name="Ajustes - Control" sheetId="1" r:id="rId2"/>
     <sheet name="Estados" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Ajustes - Control'!$A$1:$F$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
   <si>
     <t>FUNCIÓN</t>
   </si>
@@ -85,10 +89,6 @@
     <t>MIX_control_100ms</t>
   </si>
   <si>
-    <t>MIX_control_1000ms
-MIX_init</t>
-  </si>
-  <si>
     <t>MIX_PositionDeviation</t>
   </si>
   <si>
@@ -105,9 +105,75 @@
     <t>Mixer_Control_Release</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
+    <t>MIX_control_1000ms</t>
+  </si>
+  <si>
+    <t>Mixer_Control_Release_Timeout</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MIX_control_20ms</t>
+  </si>
+  <si>
+    <t>se encarga de controlar y ajustar el sistema de mezcla de gas
+Realiza una reducción de potencia
+Se realiza un filtrado del voltaje lambda para eliminar picos en los valores medidos
+Usa la siguiente función no definida: io_calculate_AI_R_U_value</t>
+  </si>
+  <si>
+    <t>Parámetros o
+ variables que usa y lee</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se realiza un filtrado de la presión del receptor (sensor) para eliminar picos en los valores medidos.
+Calcula y actualiza el valor promedio de la presión
+Se verifica si el sensor de presión del receptor está asignado y se calcula la presión del receptor basada en los valores de corriente (4-20mA).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TECJET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Calculo del flujo de la mezcla [0.001m³/h] (FuelFlowRate)
+Flow = S200EngineSpeed*ReceiverPressureAvg / PAR_OFFSET_REC_PRESS</t>
+    </r>
+  </si>
+  <si>
+    <t>MIX_control_10ms</t>
+  </si>
+  <si>
+    <t>Función que utiliza:
+MIX_StepperMotorControl</t>
+  </si>
+  <si>
+    <t>MIX_StepperMotorControl</t>
+  </si>
+  <si>
+    <t>MixerIndex</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -120,7 +186,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -130,7 +196,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -147,7 +213,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="Aptos Narrow"/>
         <family val="2"/>
@@ -157,6 +223,327 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">input value: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      MIX.MixerControlRelase.State </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> controlar el motor paso a paso</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Controlar el motor paso a paso</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valores que usa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+MIX.ReceiverPressureFilteredValue
+MIX.ReceiverPressure</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Evaluar las condiciones para el control activo del mezclador, determina si se puede liberar el control del mezclador basandose en varias condiciones.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Estructura de protección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MIX_protection (State(cold, trip, hot), LastState, StateTimer, Limit, Exceeded )
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">trip limit: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MIX_ACCEPTED_MAX_TO_START_CONTROL (release active mixer control, raw value)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">trip delay:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      MIX_DELAY_FOR_STARTING:LAMBDA_CONTROL (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evalua la condición si se tiene control lambda)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cycle time:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  1000ms
+Stop condition:    none 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evaluación de condiciones:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+* Se verifica si el control lambda está desactivado o si el voltaje lambda no está asignado. Si alguna de estas condiciones se cumple, se considera que el control del mezclador es seguro (luz verde).
+* Se establece un límite para el valor aceptado para iniciar el control del mezclador.
+* Se evalúa si el valor filtrado del voltaje lambda está dentro de los límites aceptados y si se han cumplido las condiciones para iniciar el control del mezclador.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Cambio de estado:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependiendo del estado actual del sistema, se realizan transiciones de estado basadas en las condiciones evaluadas. Por ejemplo, si el sistema está en estado "COLD" y se cumplen las condiciones, se cambia el estado a "HOT".</t>
+    </r>
+  </si>
+  <si>
+    <t>Actualización de estados: 
+HOT, COLD, TRIP</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">input value:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MIX.LambdaVoltageFilteredValue
+estructura </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mix_protection (State)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">se encarga de gestionar el temporizador que controla el tiempo de espera para la liberación del control del mezclador de gas.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Evaluación de Condiciones para la Liberación del Control</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Se establece un límite para el valor aceptado para iniciar el control del mezclador.
+Se evalúan varias condiciones para determinar si se puede liberar el control del mezclador:
+Si se cumplen las condiciones para iniciar el control del mezclador.
+Si la carga es suficientemente alta para activar el control.
+Si el estado actual del control del mezclador no es "TRIP".</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Calcula los valores  de Presión, Temperatura, Potencia,  p, T, P, 
+y determinar si estos valores están dentro de los criterios de estabilidad.
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -166,7 +553,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">input value:  </t>
+      <t xml:space="preserve">Evalua las condiciones para ejecutar el control activo del mezclador, llamando a la función: Mixer_Control_Release
+</t>
     </r>
     <r>
       <rPr>
@@ -176,19 +564,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MIX.LambdaVoltageFilteredValue</t>
-    </r>
-  </si>
-  <si>
-    <t>Actualización de estados: HOT, COLD, TRIP</t>
-  </si>
-  <si>
-    <t>MIX_control_1000ms</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Evaluar las condiciones para el control activo del mezclador
-</t>
+      <t xml:space="preserve">* supervisión del tiempo de espera para el control activo del mezclador, </t>
     </r>
     <r>
       <rPr>
@@ -199,7 +575,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Estructura de protección: </t>
+      <t>llamando a la función:
+Mixer_Control_Release_Timeout</t>
     </r>
     <r>
       <rPr>
@@ -209,8 +586,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">MIX.MixerControlRelease. MIX_protection
-</t>
+      <t xml:space="preserve">
+* Comprobar el flujo máximo para tecjet, </t>
     </r>
     <r>
       <rPr>
@@ -221,7 +598,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">trip limit: </t>
+      <t xml:space="preserve">llamando a la función SetMaxFlowRateTecJet </t>
     </r>
     <r>
       <rPr>
@@ -231,8 +608,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">MIX_ACCEPTED_MAX_TO_START_CONTROL (release active mixer control, raw value)
-</t>
+      <t>(solo sería necesario si se cambia una de las opciones tecjet o si se ha tocado uno de los parámetros de flujo máximo)</t>
     </r>
     <r>
       <rPr>
@@ -243,18 +619,98 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">trip delay:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      MIX_DELAY_FOR_STARTING:LAMBDA_CONTROL (</t>
-    </r>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>MIX_SystemOff</t>
+  </si>
+  <si>
+    <t>SIG, mixer</t>
+  </si>
+  <si>
+    <t>La regulación de la mezcla está desconectada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIX_OPTION_RECEIV_PRESS_SENSOR
+AI_I_FUNCT.RECEIVER_PRESSURE
+MIX_RECEIV_PRESS_WIREBREAK
+STOPCONDITION_####
+MIX_RECEIV_PRESS_VALUE_FOR_4mA - 20mA
+IOA_AI_I_MIX_RECEIVER
+TEC_HEAT_VALUE
+MIX_DK_DEPENDENCY_TECJET
+</t>
+  </si>
+  <si>
+    <t>MIX_RELEASE_POWER_CONTROL
+MIXER_LIMIT_LEAN</t>
+  </si>
+  <si>
+    <t>MIX_OPTION_LAMBDA_CONTROL</t>
+  </si>
+  <si>
+    <t>MIX_OPTION_LAMBDA_CONTROL
+GEN_NOMINAL_LOAD
+MIX_RELEASE_POWER_CONTROL</t>
+  </si>
+  <si>
+    <t>MIX_init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIX_PositionDeviation()
+MIX_ControlDeviation() (para monitorear y controlar la desviación de presión y temperatura en el sistema.)
+MIX_Regulation_DO
+MIX_RunningTimeRamp </t>
+  </si>
+  <si>
+    <t>MIX_Set_AnalogOutZero</t>
+  </si>
+  <si>
+    <t>MIX_ANALOG_CONTROL_SIGNAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIX_MAX_NUMBER_OF_STEPS
+TEC_RAMP_TIME_START_TO_IDLE
+GEN_NOMINAL_LOAD
+</t>
+  </si>
+  <si>
+    <t>leer NUMBER_OF_MIXER_SETPOINTS triples de punto de consigna (P,p,T) en el arreglo
+es llamado durante la inicialización y después de cada cambio de estos parámetros</t>
+  </si>
+  <si>
+    <t>Mix_Read_MixerSetpointsFromParameters</t>
+  </si>
+  <si>
+    <t>Mix_Sort_MixerSetpoints</t>
+  </si>
+  <si>
+    <t>ordenar los puntos de ajuste dentro del arreglo por Potencia</t>
+  </si>
+  <si>
+    <t>incluye establecer valores iniciales para las salidas analógicas, configurar los rangos completos del mezclador 
+y calcular el tiempo de rampa para el mezclador.
+Se configuran varios parámetros iniciales, como el desplazamiento de temperatura y la potencia máxima permitida del motor.
+Se llama a la función SetMaxFlowRateTecJet para establecer la tasa de flujo máxima del TecJet.</t>
+  </si>
+  <si>
+    <t>Mix_Calculate_Constant_pTDeviationControl</t>
+  </si>
+  <si>
+    <t>MIX_DEV_MIN_TIME
+MIX_DEV_MAX_DP_3SEC
+MIX_MAX_DEVIATION</t>
+  </si>
+  <si>
+    <t>se encarga de calcular una constante utilizada para el control de desviación de presión
+ y temperatura en el mezclador de gas.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -264,7 +720,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Evalua la condición si se tiene control lambda)</t>
+      <t xml:space="preserve">Funciones que usa:
+</t>
     </r>
     <r>
       <rPr>
@@ -274,9 +731,35 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
+      <t>SetMaxFlowRateTecJet
+Mix_Read_MixerSetpointsFromParameters
+Mix_Sort_MixerSetpoints (organizar los puntos de ajuste)
+Mix_Calculate_Constant_pTDeviationControl
+Transit()</t>
+    </r>
+  </si>
+  <si>
+    <t>CUMMINS_OPTION
+DO_FUNCT.IOA_DO_MIX_MOVE_DIR_LEAN
+DO_FUNCT.IOA_DO_MIX_MOVE_DIR_RICH
+AI_I_FUNCT.IOA_AI_I_MIX_GASMIXER_POS
+RECEIVER_TEMP
+MIX_OPTION_RECEIV_TEMP_SENSOR
+STOPCONDITION_#####
+IOA_AI_I_MIX_RECEIVER_TEMP
+MIX_LOAD_RED_RECEIVER_TEMP_START_VALUE
+MIX_LOAD_RED_RECEIVER_TEMP_RAMP
+GEN_NOMINAL_LOAD
+MIX_MAX_NUMBER_OF_STEPS
+IOA_AO_MIX_GASMIXER_SETPOINT
+MIX_FEEDBACK_AT_#_PERCENT
+MIX_SECOND_MIXER
+IOA_AO_MIX_AIRMIXER
+MIX_TIMER_NEXT_CALIBRATION_NECESSARY
+AI_I_FUNCT.LAMBDA_VOLTAGE
+MIX_MAX_TEMP_MIXTURE (MIN)</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -286,7 +769,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Cycle time:</t>
+      <t xml:space="preserve">Funciones que usa:
+</t>
     </r>
     <r>
       <rPr>
@@ -296,142 +780,42 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  1000ms
-Stop condition:    none </t>
-    </r>
-  </si>
-  <si>
-    <t>Mixer_Control_Release_Timeout</t>
-  </si>
-  <si>
+      <t xml:space="preserve">Mixer_Control_Release
+Mixer_Control_Release_Timeout
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">input value: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      MIX.MixerControlRelase.State </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Supervisión del tiempo de espera para el control activo del mezclador
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Valores que toma:
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Estructura de protección:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> MIX.MixerControlRelease. MIX_protection
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>trip delay</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:        MIX_TIMEOUT_FOR_STARTING_LAMBDA_CONTROL
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Cycle time:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">      1000ms 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Stop condition: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   50125R	</t>
-    </r>
-  </si>
-  <si>
-    <t>se encarga de controlar y ajustar el sistema de mezcla de gas
-Realiza una reducción de potencia</t>
-  </si>
-  <si>
-    <t>Calcula los valores de p, T, P</t>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Para potencia: ELM.T1E.sec.Psum
+Para presión: MIX.ReceiverPressureAvgFilteredValue
+Para temperatura:
+MIX.ReceiverTemperature.Value</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +854,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -485,7 +898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -585,11 +998,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,9 +1156,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -628,12 +1170,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -646,38 +1182,123 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,22 +1634,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CFE11-53A1-4719-80C7-857F6FDC9732}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="128" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
     <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="6" max="6" width="86" customWidth="1"/>
+    <col min="6" max="6" width="95.5703125" customWidth="1"/>
+    <col min="7" max="7" width="53.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1047,296 +1672,361 @@
       <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
+      <c r="G1" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="30" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>5577</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4002</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
         <v>4485</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-    </row>
-    <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-    </row>
-    <row r="9" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-    </row>
-    <row r="12" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
+      <c r="C4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
+        <v>5032</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>5198</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1348,201 +2038,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7A8BD-DDF2-4F6D-88C7-DDB8F2B02A08}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
     <col min="3" max="3" width="51.42578125" customWidth="1"/>
     <col min="4" max="4" width="42.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="43.5703125" customWidth="1"/>
     <col min="6" max="6" width="104.28515625" customWidth="1"/>
     <col min="7" max="7" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="19" t="s">
+      <c r="C1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2"/>
+      <c r="F1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32">
         <v>135</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="34" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="35">
         <v>251</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>289</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="13" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>467</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
-        <v>289</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="C5" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F5" s="34" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>543</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="14" customFormat="1" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>638</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="14" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>467</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="15" customFormat="1" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
-        <v>543</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>638</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="29" t="s">
+      <c r="C7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41">
+        <v>5285</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" s="15" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" s="15" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" s="15" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:12" s="15" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="16"/>
+      <c r="C8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="47">
+        <v>5186</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="47"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="G9" s="49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="14" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>698</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="58"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="53" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>859</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="17"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:12" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="14" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -1594,18 +2323,18 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="10"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
@@ -1752,16 +2481,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="30" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE42A44E-47FE-41CA-B0B6-123D9BC48E4B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,29 +2499,103 @@
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" customWidth="1"/>
-    <col min="5" max="5" width="54.7109375" customWidth="1"/>
-    <col min="6" max="6" width="86" customWidth="1"/>
+    <col min="5" max="5" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="43" t="s">
         <v>7</v>
       </c>
+    </row>
+    <row r="2" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>1149</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+    </row>
+    <row r="4" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+    </row>
+    <row r="5" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+    </row>
+    <row r="6" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentación/Documentación_descripción.xlsx
+++ b/Documentación/Documentación_descripción.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBF56FE-A786-4FE4-B8B8-48554DACA7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD25D2-F00D-4D0C-8572-2FD7C90DADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{54E2B79A-5C65-4C86-A927-38D16DD4CB01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{54E2B79A-5C65-4C86-A927-38D16DD4CB01}"/>
   </bookViews>
   <sheets>
     <sheet name="MIX_control" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Ajustes - Control'!$A$1:$F$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1134,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1209,14 +1208,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1636,8 +1628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CFE11-53A1-4719-80C7-857F6FDC9732}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -1676,22 +1668,22 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="30" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+    <row r="2" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24">
         <v>5577</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="29"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1708,7 +1700,7 @@
       <c r="F3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="42" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1727,10 +1719,10 @@
       <c r="F4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="42" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2038,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F7A8BD-DDF2-4F6D-88C7-DDB8F2B02A08}">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -2083,139 +2075,139 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="A2" s="29">
         <v>135</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="31" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="A3" s="32">
         <v>251</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="A4" s="32">
         <v>289</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="36" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="13" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
+      <c r="A5" s="29">
         <v>467</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="31" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="14" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="A6" s="32">
         <v>543</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="35" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="14" customFormat="1" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="A7" s="32">
         <v>638</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="39" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="36" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="14" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="41">
+      <c r="A8" s="38">
         <v>5285</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42" t="s">
+      <c r="D8" s="38"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="14" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47">
+      <c r="A9" s="44">
         <v>5186</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="G9" s="49" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="G9" s="46" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2223,16 +2215,16 @@
       <c r="A10" s="17">
         <v>698</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="58"/>
-      <c r="D10" s="57"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="52" t="s">
+      <c r="F10" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="53" t="s">
+      <c r="G10" s="50" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2261,17 +2253,17 @@
       <c r="F12" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="51" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="56"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="55"/>
+      <c r="F13" s="52"/>
     </row>
     <row r="14" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
@@ -2503,19 +2495,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="40" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2526,7 +2518,7 @@
       <c r="B2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="22"/>

--- a/Documentación/Documentación_descripción.xlsx
+++ b/Documentación/Documentación_descripción.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yvelasquez\Documents\Códigos_C\Migración\copowerDev\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DD25D2-F00D-4D0C-8572-2FD7C90DADE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA39DA28-A5C6-4C39-8BEE-E13F7ADA5493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{54E2B79A-5C65-4C86-A927-38D16DD4CB01}"/>
   </bookViews>
@@ -1628,10 +1628,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05CFE11-53A1-4719-80C7-857F6FDC9732}">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2483,7 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="C15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
